--- a/projects/test_building/input/Scenario_HeatingTechnology_Cost_Material.xlsx
+++ b/projects/test_building/input/Scenario_HeatingTechnology_Cost_Material.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10611"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0484F6C6-DB4E-654C-9921-79062FEEBE38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="1660" windowWidth="19860" windowHeight="13520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1500" yWindow="1665" windowWidth="19860" windowHeight="13515"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -164,7 +163,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -266,54 +265,54 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:AS76" totalsRowShown="0">
-  <autoFilter ref="A1:AS76" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:AS76" totalsRowShown="0">
+  <autoFilter ref="A1:AS76"/>
   <tableColumns count="45">
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="id_region"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="id_heating_technology" dataDxfId="0"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="id_heating_system_action"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="unit"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="2010"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="2011"/>
-    <tableColumn id="1" xr3:uid="{2FB18FBC-2FB2-EF44-A1D6-B84FC5D535AF}" name="2012"/>
-    <tableColumn id="3" xr3:uid="{18332A00-587F-9D4B-A465-BA663FA8BA89}" name="2013"/>
-    <tableColumn id="9" xr3:uid="{9015DCA7-EFD1-7B41-808E-F4C2D4373558}" name="2014"/>
-    <tableColumn id="10" xr3:uid="{960E1C22-AB8D-4D4E-BF1A-E4DDC89911AA}" name="2015"/>
-    <tableColumn id="11" xr3:uid="{1A8640A1-99BF-B349-89D9-8D54C034E8C9}" name="2016"/>
-    <tableColumn id="12" xr3:uid="{0B5215D7-3E80-7E4C-9B72-7FFA799A613C}" name="2017"/>
-    <tableColumn id="13" xr3:uid="{2555B6DB-ACEB-4D4B-B07B-6DF3BE5442BD}" name="2018"/>
-    <tableColumn id="14" xr3:uid="{7107E860-8530-F042-A3AB-47E5A9D0DEAD}" name="2019"/>
-    <tableColumn id="15" xr3:uid="{B460F3C0-1FAD-654E-AAF2-5102DD35DB07}" name="2020"/>
-    <tableColumn id="16" xr3:uid="{11FA752B-3C0C-8C47-9DEC-9DF57984E123}" name="2021"/>
-    <tableColumn id="17" xr3:uid="{C5B34F3B-4896-0E4C-9DA1-A5AC54D964AC}" name="2022"/>
-    <tableColumn id="18" xr3:uid="{8D08C406-B957-F746-A1F1-9AA159EA251C}" name="2023"/>
-    <tableColumn id="19" xr3:uid="{FFABF9C0-B1B9-4949-AA72-482AB3993079}" name="2024"/>
-    <tableColumn id="20" xr3:uid="{8CDD5A99-E224-7744-B36E-CA8C98D8AA67}" name="2025"/>
-    <tableColumn id="21" xr3:uid="{970D8BEA-1B22-F949-9F0C-E64383CC2976}" name="2026"/>
-    <tableColumn id="22" xr3:uid="{64A90FF5-421A-5A41-8434-E89411F9CE3F}" name="2027"/>
-    <tableColumn id="23" xr3:uid="{B6C09CFB-4BCC-054D-863B-0D1506AED1C4}" name="2028"/>
-    <tableColumn id="24" xr3:uid="{13F8A008-656D-3D42-A2DB-0AAB12039802}" name="2029"/>
-    <tableColumn id="25" xr3:uid="{2B200C7F-942C-2344-840D-6C15E58EC733}" name="2030"/>
-    <tableColumn id="26" xr3:uid="{8C73AA8D-D372-B646-98A3-7475160ADAEB}" name="2031"/>
-    <tableColumn id="27" xr3:uid="{324E8EE4-CB3D-FE40-ABD4-057CF2F0D972}" name="2032"/>
-    <tableColumn id="28" xr3:uid="{4AF9FB2D-EC40-4342-AA55-BE62C0D4AC8F}" name="2033"/>
-    <tableColumn id="29" xr3:uid="{FF2D7873-8C1F-304E-9B26-3551EFC6EDFF}" name="2034"/>
-    <tableColumn id="30" xr3:uid="{1F536355-D8C7-4241-ABB2-15C75D881C0C}" name="2035"/>
-    <tableColumn id="31" xr3:uid="{54BF7DE0-8412-7449-9481-4BCC6DEC163D}" name="2036"/>
-    <tableColumn id="32" xr3:uid="{7B1791C1-5420-614C-9D73-3E87DD1E2CD5}" name="2037"/>
-    <tableColumn id="33" xr3:uid="{B31B4271-1FFC-FC46-AC3D-6BC1F36D5210}" name="2038"/>
-    <tableColumn id="34" xr3:uid="{5F77ACFD-06E2-764B-A823-8AEFD4E7F490}" name="2039"/>
-    <tableColumn id="35" xr3:uid="{BE90DA7C-5C6C-4C40-9710-BF63726280B4}" name="2040"/>
-    <tableColumn id="36" xr3:uid="{DB61B23C-3FEC-AD48-8224-7871DFA79202}" name="2041"/>
-    <tableColumn id="37" xr3:uid="{A15B35E0-6B92-D547-B700-77E796757E21}" name="2042"/>
-    <tableColumn id="38" xr3:uid="{859CF356-03A1-844C-A103-2DEA6E5BD6F7}" name="2043"/>
-    <tableColumn id="39" xr3:uid="{D3663F9F-464F-F748-B947-5B32B00601FC}" name="2044"/>
-    <tableColumn id="40" xr3:uid="{0F9F55BA-BC62-4041-A62E-F2E494394B46}" name="2045"/>
-    <tableColumn id="41" xr3:uid="{E915837C-97BE-7641-B9B8-4732817E24F3}" name="2046"/>
-    <tableColumn id="42" xr3:uid="{522C9B7A-EBFE-0F42-ACA6-359CFC1538B3}" name="2047"/>
-    <tableColumn id="43" xr3:uid="{7A53031C-D3B2-C54A-A534-E4629A846145}" name="2048"/>
-    <tableColumn id="44" xr3:uid="{AF6D2561-55D3-4B40-8DBA-6F0E14A24F55}" name="2049"/>
-    <tableColumn id="45" xr3:uid="{90AD41B5-848A-AB41-B378-1465BE295144}" name="2050"/>
+    <tableColumn id="2" name="id_region"/>
+    <tableColumn id="4" name="id_heating_technology" dataDxfId="0"/>
+    <tableColumn id="5" name="id_heating_system_action"/>
+    <tableColumn id="6" name="unit"/>
+    <tableColumn id="7" name="2010"/>
+    <tableColumn id="8" name="2011"/>
+    <tableColumn id="1" name="2012"/>
+    <tableColumn id="3" name="2013"/>
+    <tableColumn id="9" name="2014"/>
+    <tableColumn id="10" name="2015"/>
+    <tableColumn id="11" name="2016"/>
+    <tableColumn id="12" name="2017"/>
+    <tableColumn id="13" name="2018"/>
+    <tableColumn id="14" name="2019"/>
+    <tableColumn id="15" name="2020"/>
+    <tableColumn id="16" name="2021"/>
+    <tableColumn id="17" name="2022"/>
+    <tableColumn id="18" name="2023"/>
+    <tableColumn id="19" name="2024"/>
+    <tableColumn id="20" name="2025"/>
+    <tableColumn id="21" name="2026"/>
+    <tableColumn id="22" name="2027"/>
+    <tableColumn id="23" name="2028"/>
+    <tableColumn id="24" name="2029"/>
+    <tableColumn id="25" name="2030"/>
+    <tableColumn id="26" name="2031"/>
+    <tableColumn id="27" name="2032"/>
+    <tableColumn id="28" name="2033"/>
+    <tableColumn id="29" name="2034"/>
+    <tableColumn id="30" name="2035"/>
+    <tableColumn id="31" name="2036"/>
+    <tableColumn id="32" name="2037"/>
+    <tableColumn id="33" name="2038"/>
+    <tableColumn id="34" name="2039"/>
+    <tableColumn id="35" name="2040"/>
+    <tableColumn id="36" name="2041"/>
+    <tableColumn id="37" name="2042"/>
+    <tableColumn id="38" name="2043"/>
+    <tableColumn id="39" name="2044"/>
+    <tableColumn id="40" name="2045"/>
+    <tableColumn id="41" name="2046"/>
+    <tableColumn id="42" name="2047"/>
+    <tableColumn id="43" name="2048"/>
+    <tableColumn id="44" name="2049"/>
+    <tableColumn id="45" name="2050"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -581,24 +580,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AS76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -735,7 +734,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>9</v>
       </c>
@@ -872,7 +871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>9</v>
       </c>
@@ -1009,7 +1008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>9</v>
       </c>
@@ -1146,7 +1145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>9</v>
       </c>
@@ -1283,7 +1282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>9</v>
       </c>
@@ -1420,7 +1419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>9</v>
       </c>
@@ -1557,7 +1556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>9</v>
       </c>
@@ -1694,7 +1693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>9</v>
       </c>
@@ -1831,7 +1830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1968,7 +1967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -2105,7 +2104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>9</v>
       </c>
@@ -2242,7 +2241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>9</v>
       </c>
@@ -2379,7 +2378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>9</v>
       </c>
@@ -2516,7 +2515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>9</v>
       </c>
@@ -2653,7 +2652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>9</v>
       </c>
@@ -2790,7 +2789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>9</v>
       </c>
@@ -2927,7 +2926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>9</v>
       </c>
@@ -3064,7 +3063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>9</v>
       </c>
@@ -3201,7 +3200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>9</v>
       </c>
@@ -3338,7 +3337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>9</v>
       </c>
@@ -3475,7 +3474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>9</v>
       </c>
@@ -3612,7 +3611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>9</v>
       </c>
@@ -3749,7 +3748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>9</v>
       </c>
@@ -3886,7 +3885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>9</v>
       </c>
@@ -4023,7 +4022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>9</v>
       </c>
@@ -4160,7 +4159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>9</v>
       </c>
@@ -4297,7 +4296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>9</v>
       </c>
@@ -4434,7 +4433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>9</v>
       </c>
@@ -4571,7 +4570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>9</v>
       </c>
@@ -4708,7 +4707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>9</v>
       </c>
@@ -4845,7 +4844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>9</v>
       </c>
@@ -4982,7 +4981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>9</v>
       </c>
@@ -5119,7 +5118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>9</v>
       </c>
@@ -5256,7 +5255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>9</v>
       </c>
@@ -5393,7 +5392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>9</v>
       </c>
@@ -5530,7 +5529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>9</v>
       </c>
@@ -5667,7 +5666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>9</v>
       </c>
@@ -5804,7 +5803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>9</v>
       </c>
@@ -5941,7 +5940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>9</v>
       </c>
@@ -6078,7 +6077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>9</v>
       </c>
@@ -6215,7 +6214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>9</v>
       </c>
@@ -6352,7 +6351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>9</v>
       </c>
@@ -6489,7 +6488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>9</v>
       </c>
@@ -6626,7 +6625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>9</v>
       </c>
@@ -6763,7 +6762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>9</v>
       </c>
@@ -6900,7 +6899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>9</v>
       </c>
@@ -7037,7 +7036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>9</v>
       </c>
@@ -7174,7 +7173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>9</v>
       </c>
@@ -7311,7 +7310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>9</v>
       </c>
@@ -7448,7 +7447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>9</v>
       </c>
@@ -7585,7 +7584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>9</v>
       </c>
@@ -7722,7 +7721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>9</v>
       </c>
@@ -7859,7 +7858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>9</v>
       </c>
@@ -7996,7 +7995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>9</v>
       </c>
@@ -8133,7 +8132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>9</v>
       </c>
@@ -8270,7 +8269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>9</v>
       </c>
@@ -8407,7 +8406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>9</v>
       </c>
@@ -8544,7 +8543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>9</v>
       </c>
@@ -8681,7 +8680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>9</v>
       </c>
@@ -8818,7 +8817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>9</v>
       </c>
@@ -8955,7 +8954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>9</v>
       </c>
@@ -9092,7 +9091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>9</v>
       </c>
@@ -9229,7 +9228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>9</v>
       </c>
@@ -9366,7 +9365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>9</v>
       </c>
@@ -9503,7 +9502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>9</v>
       </c>
@@ -9640,7 +9639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>9</v>
       </c>
@@ -9777,7 +9776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>9</v>
       </c>
@@ -9914,7 +9913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>9</v>
       </c>
@@ -10051,7 +10050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>9</v>
       </c>
@@ -10188,7 +10187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>9</v>
       </c>
@@ -10325,7 +10324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>9</v>
       </c>
@@ -10462,7 +10461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>9</v>
       </c>
@@ -10599,7 +10598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>9</v>
       </c>
@@ -10736,7 +10735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>9</v>
       </c>
@@ -10873,7 +10872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>9</v>
       </c>
@@ -11019,392 +11018,392 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FB66E67-EE2E-074A-A1FE-8AE52C69D5AC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:C78"/>
   <sheetViews>
     <sheetView topLeftCell="A57" workbookViewId="0">
       <selection activeCell="C78" sqref="C4:C78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="4" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C4">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C5">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C6">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C7">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C8">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C9">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C10">
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C11">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C12">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C13">
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C14">
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C15">
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C16">
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C17">
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C18">
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C19">
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C20">
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C21">
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C22">
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C23">
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C24">
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C25">
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C26">
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C27">
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C28">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C29">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C30">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C31">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C32">
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C33">
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C34">
         <v>210</v>
       </c>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C35">
         <v>210</v>
       </c>
     </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C36">
         <v>210</v>
       </c>
     </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C37">
         <v>211</v>
       </c>
     </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C38">
         <v>211</v>
       </c>
     </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C39">
         <v>211</v>
       </c>
     </row>
-    <row r="40" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C40">
         <v>212</v>
       </c>
     </row>
-    <row r="41" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C41">
         <v>212</v>
       </c>
     </row>
-    <row r="42" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C42">
         <v>212</v>
       </c>
     </row>
-    <row r="43" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C43">
         <v>213</v>
       </c>
     </row>
-    <row r="44" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C44">
         <v>213</v>
       </c>
     </row>
-    <row r="45" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C45">
         <v>213</v>
       </c>
     </row>
-    <row r="46" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C46">
         <v>31</v>
       </c>
     </row>
-    <row r="47" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C47">
         <v>31</v>
       </c>
     </row>
-    <row r="48" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C48">
         <v>31</v>
       </c>
     </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C49">
         <v>32</v>
       </c>
     </row>
-    <row r="50" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C50">
         <v>32</v>
       </c>
     </row>
-    <row r="51" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C51">
         <v>32</v>
       </c>
     </row>
-    <row r="52" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C52">
         <v>33</v>
       </c>
     </row>
-    <row r="53" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C53">
         <v>33</v>
       </c>
     </row>
-    <row r="54" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C54">
         <v>33</v>
       </c>
     </row>
-    <row r="55" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C55">
         <v>34</v>
       </c>
     </row>
-    <row r="56" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C56">
         <v>34</v>
       </c>
     </row>
-    <row r="57" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C57">
         <v>34</v>
       </c>
     </row>
-    <row r="58" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C58">
         <v>41</v>
       </c>
     </row>
-    <row r="59" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C59">
         <v>41</v>
       </c>
     </row>
-    <row r="60" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C60">
         <v>41</v>
       </c>
     </row>
-    <row r="61" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C61">
         <v>42</v>
       </c>
     </row>
-    <row r="62" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C62">
         <v>42</v>
       </c>
     </row>
-    <row r="63" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C63">
         <v>42</v>
       </c>
     </row>
-    <row r="64" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C64">
         <v>43</v>
       </c>
     </row>
-    <row r="65" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C65">
         <v>43</v>
       </c>
     </row>
-    <row r="66" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C66">
         <v>43</v>
       </c>
     </row>
-    <row r="67" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C67">
         <v>44</v>
       </c>
     </row>
-    <row r="68" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C68">
         <v>44</v>
       </c>
     </row>
-    <row r="69" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C69">
         <v>44</v>
       </c>
     </row>
-    <row r="70" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C70">
         <v>45</v>
       </c>
     </row>
-    <row r="71" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C71">
         <v>45</v>
       </c>
     </row>
-    <row r="72" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C72">
         <v>45</v>
       </c>
     </row>
-    <row r="73" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C73">
         <v>46</v>
       </c>
     </row>
-    <row r="74" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C74">
         <v>46</v>
       </c>
     </row>
-    <row r="75" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C75">
         <v>46</v>
       </c>
     </row>
-    <row r="76" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C76">
         <v>50</v>
       </c>
     </row>
-    <row r="77" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C77">
         <v>50</v>
       </c>
     </row>
-    <row r="78" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C78">
         <v>50</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C4:C78">
+  <sortState ref="C4:C78">
     <sortCondition ref="C4:C78"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
